--- a/tableau_coeff.xlsx
+++ b/tableau_coeff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remybordes/Documents/mon_projet/Calcul prix net vendeur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE65A096-6C7F-A040-85AE-AB321AF6FEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AE18C-3989-6A40-81E0-1AC2AC50F821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22080" xr2:uid="{86BA5324-2678-3C4C-B277-464BBCB80300}"/>
+    <workbookView xWindow="4500" yWindow="500" windowWidth="33900" windowHeight="22080" xr2:uid="{86BA5324-2678-3C4C-B277-464BBCB80300}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Prix net vendeur </t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Prix_de_vente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41894A19-93BD-614B-9BF4-723C0976BD0F}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,7 +566,7 @@
     <col min="6" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -577,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -591,12 +594,12 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="C3" s="1">
         <v>30000</v>
@@ -605,7 +608,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -619,7 +622,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -633,7 +636,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -647,7 +650,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -661,7 +664,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -675,7 +678,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -689,7 +692,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -703,7 +706,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -717,7 +720,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -731,7 +734,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -745,7 +748,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -758,8 +761,11 @@
       <c r="D14" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -773,7 +779,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -826,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB662C9-976C-E147-9640-7446D574B910}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="217" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,6 +899,14 @@
         <v>-830</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100000</v>
+      </c>
+      <c r="B10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tableau_coeff.xlsx
+++ b/tableau_coeff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remybordes/Documents/mon_projet/Calcul prix net vendeur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7AE18C-3989-6A40-81E0-1AC2AC50F821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6AF043-1C1B-A240-82D2-DED898010C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="500" windowWidth="33900" windowHeight="22080" xr2:uid="{86BA5324-2678-3C4C-B277-464BBCB80300}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tableau_coeff.xlsx
+++ b/tableau_coeff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remybordes/Documents/mon_projet/Calcul prix net vendeur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6AF043-1C1B-A240-82D2-DED898010C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A46407-2A83-DC4F-A59C-C310B973DD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="500" windowWidth="33900" windowHeight="22080" xr2:uid="{86BA5324-2678-3C4C-B277-464BBCB80300}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
